--- a/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnouaemex-my.sharepoint.com/personal/dgomeztagleg001_alumno_uaemex_mx/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Argel\Desktop\NOVENO SEMESTRE\Proyecto Integral de Comunicacion de Datos\ProyIntComDat25B_Argelinos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F405E8-40F3-4DE9-9EC1-20D054BC8CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B2A3E-6965-4371-AA40-6E3A23B8FB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="130">
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
@@ -435,12 +435,132 @@
   <si>
     <t>Comentarios o detalles relacionadas que expliquen la historia. Para definiciones de mayor longitud deben usarse documentos externos, por ejemplo la plantilla de historias de usuario.</t>
   </si>
+  <si>
+    <t>HU-15</t>
+  </si>
+  <si>
+    <t>HU-16</t>
+  </si>
+  <si>
+    <t>HU-17</t>
+  </si>
+  <si>
+    <t>HU-18</t>
+  </si>
+  <si>
+    <t>HU-19</t>
+  </si>
+  <si>
+    <t>HU-20</t>
+  </si>
+  <si>
+    <t>HU-21</t>
+  </si>
+  <si>
+    <t>HU-22</t>
+  </si>
+  <si>
+    <t>HU-23</t>
+  </si>
+  <si>
+    <t>HU-24</t>
+  </si>
+  <si>
+    <t>Como alumno de nuevo ingreso, quiero inscribirme en los cursos propedéuticos mediante la plataforma digital, para asegurar mi participación en las actividades de nivelación.</t>
+  </si>
+  <si>
+    <t>Inscripción a cursos</t>
+  </si>
+  <si>
+    <t>Derivada de RQ-10 y RQ-12.</t>
+  </si>
+  <si>
+    <t>Como alumno instructor, quiero recibir retroalimentación de los estudiantes al finalizar cada sesión, para mejorar mi metodología de enseñanza.</t>
+  </si>
+  <si>
+    <t>Retroalimentación de sesiones</t>
+  </si>
+  <si>
+    <t>Complementa la tutoría de instructores (RQ-14).</t>
+  </si>
+  <si>
+    <t>Como coordinación académica, quiero generar reportes de asistencia y rendimiento de los estudiantes, para evaluar el impacto de los cursos propedéuticos.</t>
+  </si>
+  <si>
+    <t>Reportes de seguimiento</t>
+  </si>
+  <si>
+    <t>Relacionado con RQ-06 y RQ-07.</t>
+  </si>
+  <si>
+    <t>Como alumno de nuevo ingreso, quiero acceder a los materiales de estudio desde la plataforma digital, para repasar los temas vistos en clase.</t>
+  </si>
+  <si>
+    <t>Acceso a materiales</t>
+  </si>
+  <si>
+    <t>Vinculado con HU-08 y HU-10.</t>
+  </si>
+  <si>
+    <t>Como área de TI, quiero monitorear el uso de la plataforma digital, para garantizar su estabilidad y rendimiento durante los cursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monitoreo de plataforma</t>
+  </si>
+  <si>
+    <t>Soporte técnico para HU-10.</t>
+  </si>
+  <si>
+    <t>Como alumno instructor, quiero registrar las calificaciones de las evaluaciones parciales, para llevar un control del avance de los estudiantes.</t>
+  </si>
+  <si>
+    <t>Registro de calificaciones</t>
+  </si>
+  <si>
+    <t>Complementa HU-06 y HU-07.</t>
+  </si>
+  <si>
+    <t>Como coordinación académica, quiero notificar a los estudiantes e instructores sobre cambios en el cronograma, para mantener la organización de los cursos.</t>
+  </si>
+  <si>
+    <t>Notificaciones de cambios</t>
+  </si>
+  <si>
+    <t>Extensión de HU-11.</t>
+  </si>
+  <si>
+    <t>Como alumno de nuevo ingreso, quiero realizar la prueba diagnóstica en línea, para conocer mi nivel de conocimiento inicial.</t>
+  </si>
+  <si>
+    <t>Prueba diagnóstica en línea</t>
+  </si>
+  <si>
+    <t>Automatización de HU-06.</t>
+  </si>
+  <si>
+    <t>Como alumno instructor, quiero contar con una lista de estudiantes inscritos en cada curso, para preparar las sesiones con anticipación.</t>
+  </si>
+  <si>
+    <t>Lista de estudiantes</t>
+  </si>
+  <si>
+    <t>Relacionado con HU-13 y HU-15.</t>
+  </si>
+  <si>
+    <t>Como coordinación académica, quiero certificar la participación de los instructores, para reconocer su labor en el programa de nivelación.</t>
+  </si>
+  <si>
+    <t>Certificación de instructores</t>
+  </si>
+  <si>
+    <t>Valoración del desempeño (RQ-14).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +592,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -479,9 +600,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -853,13 +972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="82" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -874,17 +993,17 @@
     <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -910,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="33" customHeight="1">
+    <row r="5" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -936,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30.75">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -962,7 +1081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30.75">
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
@@ -988,7 +1107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30.75">
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
@@ -1014,7 +1133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30.75">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
@@ -1040,7 +1159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="30.75">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1066,7 +1185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30.75">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
@@ -1092,7 +1211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30.75">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>47</v>
       </c>
@@ -1118,7 +1237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="30.75">
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1144,7 +1263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30.75">
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>57</v>
       </c>
@@ -1170,7 +1289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="30.75">
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
@@ -1196,7 +1315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="30.75">
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>66</v>
       </c>
@@ -1222,7 +1341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="30.75">
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>70</v>
       </c>
@@ -1248,7 +1367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30.75">
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
@@ -1274,7 +1393,268 @@
         <v>77</v>
       </c>
     </row>
+    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1288,7 +1668,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
@@ -1297,17 +1677,17 @@
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -1315,7 +1695,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="45">
+    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="90">
+    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +1711,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="45">
+    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="225">
+    <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1355,7 +1735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="60">
+    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="60">
+    <row r="11" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1751,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30">
+    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1394,15 +1774,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100346C637EA589F24D935192A732302EFF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="990260d8b25ff956b96d7d0f03f6d78f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="749d5ae2-5db7-4e69-a7a3-6fccc2fcb882" xmlns:ns4="2622ba91-40fd-4640-b50c-92dc66e1fc44" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b716cdaa18ca05ab713c02b4b2844a4" ns3:_="" ns4:_="">
     <xsd:import namespace="749d5ae2-5db7-4e69-a7a3-6fccc2fcb882"/>
@@ -1635,14 +2006,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7C3C27F-B547-4577-8CDC-1EEA6C037D86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7C3C27F-B547-4577-8CDC-1EEA6C037D86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2622ba91-40fd-4640-b50c-92dc66e1fc44"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EE23C90-1CB2-449C-B2BB-BB8CDEF5E70D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE9A178-2ECF-4274-B67D-7C76A7AC15A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="749d5ae2-5db7-4e69-a7a3-6fccc2fcb882"/>
+    <ds:schemaRef ds:uri="2622ba91-40fd-4640-b50c-92dc66e1fc44"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CE9A178-2ECF-4274-B67D-7C76A7AC15A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EE23C90-1CB2-449C-B2BB-BB8CDEF5E70D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>